--- a/URS/DbLayouts/L4-批次作業/InsuOrignal.xlsx
+++ b/URS/DbLayouts/L4-批次作業/InsuOrignal.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E94D61C-FAE3-4DA9-B5EF-2CBDAAC3D3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -92,10 +91,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>InsuCompany</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>InsuTypeCode</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -108,10 +103,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>FireInsuPrem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>EthqInsuPrem</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -166,10 +157,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrigInsuNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -211,10 +198,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>insuEndDateRNG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>建檔日期時間</t>
   </si>
   <si>
@@ -275,15 +258,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EndoInsuNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>批單號碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改時需填入</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -301,11 +276,47 @@
 07:其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>InsuCompany</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireInsuPrem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndoInsuNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrigInsuNo Asc,EndoInsuNo Asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuEndDateRange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrigInsuNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND OrigInsuNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findOrigInsuNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -567,7 +578,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,23 +669,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -710,23 +704,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -902,11 +879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -926,7 +903,7 @@
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
@@ -939,7 +916,7 @@
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -954,7 +931,7 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1035,13 +1012,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="24">
         <v>1</v>
@@ -1053,13 +1030,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="24">
         <v>2</v>
@@ -1071,13 +1048,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="24">
         <v>7</v>
@@ -1089,13 +1066,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="24">
         <v>17</v>
@@ -1107,33 +1084,31 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E13" s="24">
         <v>17</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>71</v>
-      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="24">
         <v>2</v>
@@ -1145,20 +1120,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="19">
         <v>2</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1166,13 +1141,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="19">
         <v>16</v>
@@ -1186,13 +1161,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="19">
         <v>16</v>
@@ -1206,13 +1181,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="19">
         <v>16</v>
@@ -1226,13 +1201,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="19">
         <v>16</v>
@@ -1246,13 +1221,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E20" s="24">
         <v>8</v>
@@ -1264,20 +1239,20 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E21" s="24">
         <v>8</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1285,13 +1260,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -1301,13 +1276,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E23" s="19">
         <v>6</v>
@@ -1319,13 +1294,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -1335,13 +1310,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>60</v>
       </c>
       <c r="E25" s="19">
         <v>6</v>
@@ -1365,19 +1340,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1394,29 +1369,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
